--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Simon/Eugène_Simon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Simon/Eugène_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Simon</t>
+          <t>Eugène_Simon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Louis Simon est un arachnologue et ornithologue français, né le 30 avril 1848 à Paris et mort le 17 novembre 1924 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Louis Simon est un arachnologue et ornithologue français, né le 30 avril 1848 à Paris et mort le 17 novembre 1924 à Paris.
 Possédant une importante fortune, Eugène Simon s’est consacré toute sa vie à sa passion : les sciences naturelles et particulièrement à l’étude des araignées et des colibris.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Simon</t>
+          <t>Eugène_Simon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,51 +524,53 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Simon est le fils d'un médecin et il s'intéresse tôt aux sciences naturelles. Il lit dans sa prime jeunesse Le Règne animal de Cuvier.
-Arachnologiste
-Il devient un pionnier de la systématique des Arachnides dès la parution à l'âge de seize ans de son Histoire naturelle des araignées (1864-1884) qui se poursuit pendant vingt ans. Elle est suivie d'un très important Les Arachnides de France (1874-1937), immense publication dont les dernières parties paraissent après sa mort, grâce aux travaux de Lucien Berland et Louis Fage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eugène_Simon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Simon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arachnologiste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient un pionnier de la systématique des Arachnides dès la parution à l'âge de seize ans de son Histoire naturelle des araignées (1864-1884) qui se poursuit pendant vingt ans. Elle est suivie d'un très important Les Arachnides de France (1874-1937), immense publication dont les dernières parties paraissent après sa mort, grâce aux travaux de Lucien Berland et Louis Fage.
 Simplement associé, il dispose néanmoins d’un bureau au Muséum national d'histoire naturelle. Il fait de nombreux voyages afin d’enrichir ses collections.
 Eugène Simon réalise un travail de clarification considérable dans la taxinomie et est l’auteur de nombreux nouveaux taxons. Il est l'auteur de 319 publications sur les araignées à propos desquelles il voyage en France, en Italie (1864), en Espagne (1865-1868), en Corse, en Sicile et au Maroc (1869), en Tunisie et en Algérie (1875). Il explore le Venezuela du 26 décembre 1887 au 7 avril 1888, ce qui le conduit à visiter La Guaira, Maiquetía, Caracas, Colonia Tovar, le massif d'El Ávila, Puerto Cabello, San Esteban et les berges du lac de Valencia.
 Il parcourt aussi l'Égypte, Suez et Aden (1889-1890), visite les Philippines (1890-1891), l'Afrique du Sud (1893), ainsi que Ceylan et l'Inde du Sud en 1892. Lorsqu'il s'arrête à Madura, il décrit pour la première fois le genre Poecilotheria dans son ouvrage Matériaux pour servir à la faune arachnologique de l'Asie méridionale. Il publie en 1890 ses Études sur les Arachnides du Yémen dans les Annales de la Société entomologique de France.
 Pierre Bonnet (1897-1990) écrit en 1945 dans sa Bibliographia Araenorum: « c’est certainement le plus grand arachnologue que nous ayons eu jusqu’ici. »
-Toutefois, son matériel n'étant pas inventorié, des redécouvertes régulières voient parfois le jour[2].
-Ornithologue
-En plus des araignées, Eugène Simon collectionne les oiseaux. Il étudie les colibris (Trochilidae) en décrivant plusieurs espèces et sous-espèces. Il définit les genres Anopetia, Stephanoxis, Haplophaedia et Taphrolesbia. Son ouvrage de fond concernant les colibris s'intitule Histoire naturelle des Trochilidae et paraît en 1921.
-Eugène Simon préside à trois reprises la Société entomologique de France, en 1875, en 1887 et en 1901. Il en est président d'honneur en 1908. Il préside aussi la Société zoologique de France en 1882.
-En 1909, il devient membre-correspondant de l'Académie des sciences de l'Institut de France. Il était ami, grâce à leurs travaux communs, de zoologistes plus jeunes comme Jacques Berlioz (1891-1975) et Louis Fage (1883-1964).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eug%C3%A8ne_Simon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Simon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Botanique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On lui doit également quelques publications en botanique.
+Toutefois, son matériel n'étant pas inventorié, des redécouvertes régulières voient parfois le jour.
 </t>
         </is>
       </c>
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Simon</t>
+          <t>Eugène_Simon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +596,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ornithologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus des araignées, Eugène Simon collectionne les oiseaux. Il étudie les colibris (Trochilidae) en décrivant plusieurs espèces et sous-espèces. Il définit les genres Anopetia, Stephanoxis, Haplophaedia et Taphrolesbia. Son ouvrage de fond concernant les colibris s'intitule Histoire naturelle des Trochilidae et paraît en 1921.
+Eugène Simon préside à trois reprises la Société entomologique de France, en 1875, en 1887 et en 1901. Il en est président d'honneur en 1908. Il préside aussi la Société zoologique de France en 1882.
+En 1909, il devient membre-correspondant de l'Académie des sciences de l'Institut de France. Il était ami, grâce à leurs travaux communs, de zoologistes plus jeunes comme Jacques Berlioz (1891-1975) et Louis Fage (1883-1964).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eugène_Simon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Simon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit également quelques publications en botanique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eugène_Simon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eug%C3%A8ne_Simon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1864-1884. Histoire naturelle des araignées, Librairie encyclopédique de Roret, Paris
 1872. Arachnides de Syrie, rapportés par M. Charles Piochard de La Brûlerie, in: Annales de la Société entomologique de France, Séries 5, 11, p. 245-264.
